--- a/medicine/Enfance/Panneau_signalant_un_endroit_fréquenté_par_les_enfants_en_France/Panneau_signalant_un_endroit_fréquenté_par_les_enfants_en_France.xlsx
+++ b/medicine/Enfance/Panneau_signalant_un_endroit_fréquenté_par_les_enfants_en_France/Panneau_signalant_un_endroit_fréquenté_par_les_enfants_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Panneau_signalant_un_endroit_fr%C3%A9quent%C3%A9_par_les_enfants_en_France</t>
+          <t>Panneau_signalant_un_endroit_fréquenté_par_les_enfants_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le panneau de signalisation A13a indique la proximité d’un endroit fréquenté par les enfants situé à une distance d’environ 150 mètres en rase campagne et 50 mètres en agglomération.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Panneau_signalant_un_endroit_fr%C3%A9quent%C3%A9_par_les_enfants_en_France</t>
+          <t>Panneau_signalant_un_endroit_fréquenté_par_les_enfants_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La signalisation avancée d'endroits fréquentés par les enfants tels qu'écoles, colonies de vacances, terrains de jeux, se fait à l'aide de panneaux A13a. Il n'est pas prévu de signalisation de position[IISR 1].
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Panneau_signalant_un_endroit_fr%C3%A9quent%C3%A9_par_les_enfants_en_France</t>
+          <t>Panneau_signalant_un_endroit_fréquenté_par_les_enfants_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le plan international le panneau de signalisation d'un endroit fréquenté par les enfants est normé dans le protocole de Genève signé en 1949. Il a sensiblement la forme définitive qui sera reprise en 1968. Il est codifié 1.18.
-En France, le panneau signalisant un endroit fréquenté par les enfants est déjà présent dans la circulaire de 1946, mais sous la forme d'un triangle crème sur un carré à fond bleu, correspondant au panneau de prudence de l'époque, avec le texte « École ». Il était alors codifié C3. Avec la circulaire du 19 janvier 1952[1], il adopte le pictogramme du protocole international de Genève, mais sur un fond crème et avec un listel rouge très étroit. Il est codifié A12 puis A13 dans l’instruction générale sur la signalisation routière de 1955 et enfin A13a en 1963.
+En France, le panneau signalisant un endroit fréquenté par les enfants est déjà présent dans la circulaire de 1946, mais sous la forme d'un triangle crème sur un carré à fond bleu, correspondant au panneau de prudence de l'époque, avec le texte « École ». Il était alors codifié C3. Avec la circulaire du 19 janvier 1952, il adopte le pictogramme du protocole international de Genève, mais sur un fond crème et avec un listel rouge très étroit. Il est codifié A12 puis A13 dans l’instruction générale sur la signalisation routière de 1955 et enfin A13a en 1963.
 La forme définitive du panneau est arrêtée sur le plan international par la convention sur la signalisation routière conclue à Vienne le 8 novembre 1968, sous le code A12.
 La France ratifie la convention le 9 décembre 1971 et transpose les dispositions de la convention de Vienne dans sa réglementation avec l’arrêté du 6 juin 1977 qui adopte le fond blanc, le large listel rouge.
 </t>
